--- a/DB23.xlsx
+++ b/DB23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A111B34-56F4-468E-84F6-522A7CEF7C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10852B59-EB5D-4C65-B767-14DACFD9D2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="6" xr2:uid="{00204FEE-323F-4DA1-86F4-8FD253E43B4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00204FEE-323F-4DA1-86F4-8FD253E43B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="All Landers" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 weight of whole pod is considered as the payloadl
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -102,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 weight of the pod is considered as the payload because that makes it more comparable</t>
@@ -358,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -367,7 +367,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -383,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -392,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -456,7 +456,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -465,7 +465,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ascent stage mass + CEV mas
@@ -481,7 +481,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -490,7 +490,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CEV mass
@@ -815,7 +815,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -824,7 +824,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -840,7 +840,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -849,7 +849,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -913,7 +913,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -922,7 +922,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ascent stage mass + CEV mas
@@ -938,7 +938,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -947,7 +947,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CEV mass
@@ -986,7 +986,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -995,7 +995,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 total mass - fuel
@@ -1177,7 +1177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -1186,7 +1186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -1202,7 +1202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -1211,7 +1211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EE-1 returns with no payload to LLO
@@ -1275,7 +1275,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -1284,7 +1284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ascent stage mass + CEV mas
@@ -1300,7 +1300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Conall De Paor:</t>
         </r>
@@ -1309,7 +1309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CEV mass
@@ -1833,26 +1833,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1865,7 +1852,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1986,7 +1973,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2014,7 +2001,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2028,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4908,6 +4895,544 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>total to dry mass</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3539683938109135"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dry mass</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0013123359580057E-2"/>
+                  <c:y val="-0.27850466608340624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Small (analysis)'!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5038.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Small (analysis)'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1673.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BB5-422C-BBA3-ED7E2665D430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="718802728"/>
+        <c:axId val="718804368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="718802728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dry mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718804368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="718804368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dry mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718802728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5391,7 +5916,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5889,7 +6414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6387,7 +6912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6862,7 +7387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7519,1000 +8044,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DD34-48F8-877A-CFAA4BFB276D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="828440048"/>
-        <c:axId val="828434800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="828440048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Dry Mass</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="828434800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="828434800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Prop mass</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="828440048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17638342082239719"/>
-          <c:y val="0.86892279090113733"/>
-          <c:w val="0.64028324584426943"/>
-          <c:h val="0.12789515893846604"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Prop Sizing Accuracy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15735870516185477"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.74646916010498687"/>
-          <c:h val="0.68889690871974341"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Real Examples</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2109</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2134</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2626</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2626</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2626</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$H$2:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8318</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9026</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8898-42B4-BCAB-25B325479A76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>statistically derived</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$Q$2:$Q$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$S$2:$S$32</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>7355.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7723.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8091.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8459.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8826.9600000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9194.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9562.5400000000009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9930.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10298.120000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10665.91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11033.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11401.49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11769.28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12137.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12504.86</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12872.650000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13240.44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13608.230000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13976.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14343.810000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14711.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15079.390000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15447.18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15814.970000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16182.76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16550.55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16918.34</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17286.13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17653.920000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18021.71</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18389.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8898-42B4-BCAB-25B325479A76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>adjusted Tsiolkovsky</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$Q$2:$Q$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Medium (analysis)'!$V$2:$V$32</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>7385.2548401660079</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7754.5175821743069</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8123.7803241826086</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8493.0430661909086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8862.3058081992076</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9231.5685502075085</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9600.8312922158075</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9970.0940342241101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10339.356776232411</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10708.61951824071</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11077.882260249009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11447.14500225731</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11816.407744265609</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12185.670486273913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12554.933228282212</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12924.195970290511</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13293.458712298812</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13662.721454307111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14031.984196315416</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14401.246938323713</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14770.509680332016</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15139.772422340313</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15509.035164348614</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15878.297906356913</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16247.560648365217</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16616.823390373516</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16986.086132381817</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17355.348874390118</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17724.611616398415</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18093.874358406716</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18463.137100415017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8898-42B4-BCAB-25B325479A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8869,6 +8400,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Prop Sizing Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8900,7 +8456,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15735870516185477"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.74646916010498687"/>
+          <c:h val="0.68889690871974341"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -8908,7 +8474,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>dry to payload</c:v>
+            <c:v>Real Examples</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -8932,143 +8498,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.6690507436570427E-2"/>
-                  <c:y val="-0.35311388159813356"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Large (analysis)'!$E$2:$E$13</c:f>
+              <c:f>'Medium (analysis)'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9823</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9861</c:v>
+                  <c:v>2134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10426</c:v>
+                  <c:v>2626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7665</c:v>
+                  <c:v>2626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9823</c:v>
+                  <c:v>2626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7899</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9823</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9726</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Large (analysis)'!$F$2:$F$13</c:f>
+              <c:f>'Medium (analysis)'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6000</c:v>
+                  <c:v>8318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9121</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11502</c:v>
+                  <c:v>9026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13102</c:v>
+                  <c:v>9026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14000</c:v>
+                  <c:v>9026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14000</c:v>
+                  <c:v>8212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18634</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36384</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42472</c:v>
+                  <c:v>8248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9076,7 +8561,483 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5537-4890-9D4B-AB5FC98540F2}"/>
+              <c16:uniqueId val="{00000000-8898-42B4-BCAB-25B325479A76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>statistically derived</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$Q$2:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$S$2:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7355.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7723.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8091.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8459.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8826.9600000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9194.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9562.5400000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9930.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10298.120000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10665.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11033.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11401.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11769.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12137.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12504.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12872.650000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13240.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13608.230000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13976.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14343.810000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14711.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15079.390000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15447.18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15814.970000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16182.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16550.55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16918.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17286.13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17653.920000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18021.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18389.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8898-42B4-BCAB-25B325479A76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>adjusted Tsiolkovsky</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$Q$2:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$V$2:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7385.2548401660079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7754.5175821743069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8123.7803241826086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8493.0430661909086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8862.3058081992076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9231.5685502075085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600.8312922158075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9970.0940342241101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10339.356776232411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10708.61951824071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11077.882260249009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11447.14500225731</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11816.407744265609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12185.670486273913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12554.933228282212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12924.195970290511</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13293.458712298812</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13662.721454307111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14031.984196315416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14401.246938323713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14770.509680332016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15139.772422340313</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15509.035164348614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15878.297906356913</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16247.560648365217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16616.823390373516</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16986.086132381817</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17355.348874390118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17724.611616398415</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18093.874358406716</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18463.137100415017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8898-42B4-BCAB-25B325479A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9088,11 +9049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="838901896"/>
-        <c:axId val="838897304"/>
+        <c:axId val="828440048"/>
+        <c:axId val="828434800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="838901896"/>
+        <c:axId val="828440048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9112,6 +9073,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dry Mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9149,12 +9165,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838897304"/>
+        <c:crossAx val="828434800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="838897304"/>
+        <c:axId val="828434800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,6 +9190,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Prop mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9211,7 +9282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838901896"/>
+        <c:crossAx val="828440048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9223,6 +9294,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17638342082239719"/>
+          <c:y val="0.86892279090113733"/>
+          <c:w val="0.64028324584426943"/>
+          <c:h val="0.12789515893846604"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9788,6 +9900,935 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13733702586350624"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.78632465132441443"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Medium (analysis)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7004593175853018E-2"/>
+                  <c:y val="-0.22062846310877807"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Medium (analysis)'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F0-4D0E-BDC0-DBED64B73F21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="635335392"/>
+        <c:axId val="635336376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="635335392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Mass</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635336376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635336376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dry mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635335392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dry to payload</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6690507436570427E-2"/>
+                  <c:y val="-0.35311388159813356"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Large (analysis)'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Large (analysis)'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5537-4890-9D4B-AB5FC98540F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="838901896"/>
+        <c:axId val="838897304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="838901896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838897304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="838897304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838901896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -10216,7 +11257,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10629,7 +11670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11073,7 +12114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11941,7 +12982,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16595,6 +17636,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25132,6 +26253,1038 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29709,6 +31862,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>741829</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AFA24A-3A63-4973-BD09-A0703E0219F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29927,6 +32118,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224517</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>864052</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC95218-13C5-EA42-F1E8-B120AF811E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30455,7 +32682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -34399,13 +36626,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81822334-6E3E-4E3D-93CF-BF9B02F79F45}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:T9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -35675,8 +37903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7CEE9-61DB-45C0-903D-6E17D60508FA}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="O14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36935,8 +39163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BD2F64-B90E-43D4-AEE3-5B9F2B1E7FA0}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
